--- a/Data/Delphi round 1/response sheets/Chris R - give your expert opinion on woodland condition.xlsx
+++ b/Data/Delphi round 1/response sheets/Chris R - give your expert opinion on woodland condition.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://woodlandtrustorg-my.sharepoint.com/personal/ewanmchenry_woodlandtrust_org_uk/Documents/WEC/Delphi round 1/response sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://woodlandtrustorg-my.sharepoint.com/personal/ewanmchenry_woodlandtrust_org_uk/Documents/WEC/Woodland-condition/Data/Delphi round 1/response sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="337" documentId="8_{DD3140B9-43BA-428D-8B9F-F9C103859F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19EDDF1A-D5BC-40B6-8162-8284A1A66CE7}"/>
+  <xr:revisionPtr revIDLastSave="350" documentId="8_{DD3140B9-43BA-428D-8B9F-F9C103859F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B893078-393E-475E-98D6-16124F6A1794}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4815" windowWidth="16440" windowHeight="28320" tabRatio="690" xr2:uid="{4926A777-5F31-4918-9802-F24A87E993EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="690" activeTab="3" xr2:uid="{4926A777-5F31-4918-9802-F24A87E993EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tree age dstribution" sheetId="20" r:id="rId1"/>
@@ -4824,19 +4824,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4848,19 +4845,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4888,7 +4882,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
-          <c:min val="0"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -5220,9 +5214,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
@@ -5253,9 +5244,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>10</c:v>
                 </c:pt>
@@ -5303,7 +5291,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15"/>
-          <c:min val="0"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -19101,7 +19089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F29E71F-E702-46F9-AE0B-9AC89F16DB42}">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
@@ -22601,7 +22589,7 @@
   <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23035,7 +23023,7 @@
   <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23113,10 +23101,10 @@
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B10" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>10</v>
@@ -23138,10 +23126,10 @@
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
@@ -23161,10 +23149,10 @@
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>11</v>
@@ -23175,19 +23163,15 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B13" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>0</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
       <c r="I14" s="28" t="s">
         <v>12</v>
       </c>
@@ -23561,8 +23545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E3BDB2-4936-4583-A0D1-731A826C7FE6}">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23637,12 +23621,8 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
       <c r="D10" s="27" t="s">
         <v>10</v>
       </c>
@@ -26583,12 +26563,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="cce065d8-4207-498d-8ddb-77753710233a">
+      <UserInfo>
+        <DisplayName>Christine Reid</DisplayName>
+        <AccountId>11</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -26783,23 +26768,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="cce065d8-4207-498d-8ddb-77753710233a">
-      <UserInfo>
-        <DisplayName>Christine Reid</DisplayName>
-        <AccountId>11</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170C8C87-D947-4550-B837-5AF2D61371C8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98190E4F-1B18-40B8-A20A-C34BFF97A2BB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="090e8724-afd2-4a00-8d2e-c87448cad135"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="cce065d8-4207-498d-8ddb-77753710233a"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -26824,18 +26813,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98190E4F-1B18-40B8-A20A-C34BFF97A2BB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170C8C87-D947-4550-B837-5AF2D61371C8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="090e8724-afd2-4a00-8d2e-c87448cad135"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="cce065d8-4207-498d-8ddb-77753710233a"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>